--- a/Experiment_Resulsts/longitudinal_prediction_result.xlsx
+++ b/Experiment_Resulsts/longitudinal_prediction_result.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\Experiment_Resulsts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4ACA41E-BA6D-4355-B106-2018615275A8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B4DA6A-E0AC-47AF-BBA1-F57B6B189182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3615" yWindow="-15390" windowWidth="23055" windowHeight="7785" xr2:uid="{192A8FFA-EEA2-491E-936C-3412EB4C77D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{192A8FFA-EEA2-491E-936C-3412EB4C77D8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Failed" sheetId="1" r:id="rId1"/>
+    <sheet name="Survived" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -102,10 +102,25 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,8 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,9 +464,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1644150A-E3DC-4C1C-BB47-8D5EB39C8D90}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -460,7 +479,7 @@
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,14 +499,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
         <v>0.27640727198231491</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.86648093262790082</v>
       </c>
       <c r="D2">
@@ -499,15 +518,19 @@
       <c r="F2">
         <v>0.88746136306362811</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>MAX(B2:E2)</f>
+        <v>0.86648093262790082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
         <v>0.10922059471119996</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1.134065161618948E-2</v>
       </c>
       <c r="D3">
@@ -519,15 +542,19 @@
       <c r="F3">
         <v>9.5819495050206479E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>MIN(B3:E3)</f>
+        <v>1.134065161618948E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>0.11314735250971202</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1.4579724390525449E-2</v>
       </c>
       <c r="D4">
@@ -539,8 +566,12 @@
       <c r="F4">
         <v>1.3521676769252212E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f>MIN(B4:E4)</f>
+        <v>1.4579724390525449E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -560,7 +591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -580,14 +611,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>-3.7190941900774405E-2</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.34188790537156605</v>
       </c>
       <c r="D8">
@@ -599,15 +630,19 @@
       <c r="F8">
         <v>0.57396137621981991</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>MAX(B8:E8)</f>
+        <v>0.34188790537156605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>5.2556474943511393E-2</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2.8384710220911651E-2</v>
       </c>
       <c r="D9">
@@ -619,15 +654,20 @@
       <c r="F9">
         <v>2.2571161222540517E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>MIN(B9:E9)</f>
+        <v>2.8384710220911651E-2</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
         <v>6.5933456515340938E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>3.743869878681183E-2</v>
       </c>
       <c r="D10">
@@ -639,8 +679,12 @@
       <c r="F10">
         <v>3.3726572994892859E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>MIN(B10:E10)</f>
+        <v>3.743869878681183E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -660,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -680,14 +724,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14">
         <v>-8.4240897067013945E-3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.1029169831888751</v>
       </c>
       <c r="D14">
@@ -699,15 +743,19 @@
       <c r="F14">
         <v>0.30234501909881784</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f>MAX(B14:E14)</f>
+        <v>0.1029169831888751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
         <v>3.1461743762476266</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>2.8372433692172203</v>
       </c>
       <c r="D15">
@@ -719,15 +767,19 @@
       <c r="F15">
         <v>2.3507301063192507</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f>MIN(B15:E15)</f>
+        <v>2.8372433692172203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
         <v>4.9483938264133105</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>4.2651681297786146</v>
       </c>
       <c r="D16">
@@ -739,8 +791,12 @@
       <c r="F16">
         <v>3.9429298313741237</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f>MIN(B16:E16)</f>
+        <v>4.2651681297786146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -760,7 +816,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -780,14 +836,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
       <c r="B20">
         <v>0.27640727198231491</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.86648093262790082</v>
       </c>
       <c r="D20">
@@ -799,15 +855,19 @@
       <c r="F20">
         <v>0.88746136306362811</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f>MAX(B20:E20)</f>
+        <v>0.86648093262790082</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
       <c r="B21">
         <v>0.10922059471119996</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>1.134065161618948E-2</v>
       </c>
       <c r="D21">
@@ -819,15 +879,19 @@
       <c r="F21">
         <v>9.5819495050206479E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f>MIN(B21:E21)</f>
+        <v>1.134065161618948E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22">
         <v>0.11314735250971202</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>1.4579724390525449E-2</v>
       </c>
       <c r="D22">
@@ -839,8 +903,12 @@
       <c r="F22">
         <v>1.3521676769252212E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f>MIN(B22:E22)</f>
+        <v>1.4579724390525449E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -860,7 +928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -880,14 +948,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26">
         <v>-3.7190941900774405E-2</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.34188790537156605</v>
       </c>
       <c r="D26">
@@ -899,15 +967,19 @@
       <c r="F26">
         <v>0.57396137621981991</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f>MAX(B26:E26)</f>
+        <v>0.34188790537156605</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
         <v>5.2556474943511393E-2</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>2.8384710220911651E-2</v>
       </c>
       <c r="D27">
@@ -919,15 +991,19 @@
       <c r="F27">
         <v>2.2571161222540517E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f>MIN(B27:E27)</f>
+        <v>2.8384710220911651E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28">
         <v>6.5933456515340938E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>3.743869878681183E-2</v>
       </c>
       <c r="D28">
@@ -939,8 +1015,12 @@
       <c r="F28">
         <v>3.3726572994892859E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f>MIN(B28:E28)</f>
+        <v>3.743869878681183E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -960,7 +1040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -980,14 +1060,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32">
         <v>-8.4240897067013945E-3</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.1029169831888751</v>
       </c>
       <c r="D32">
@@ -999,15 +1079,19 @@
       <c r="F32">
         <v>0.30234501909881784</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f>MAX(B32:E32)</f>
+        <v>0.1029169831888751</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
         <v>3.1461743762476266</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>2.8372433692172203</v>
       </c>
       <c r="D33">
@@ -1019,15 +1103,19 @@
       <c r="F33">
         <v>2.3507301063192507</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f>MIN(B33:E33)</f>
+        <v>2.8372433692172203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34">
         <v>4.9483938264133105</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>4.2651681297786146</v>
       </c>
       <c r="D34">
@@ -1039,8 +1127,12 @@
       <c r="F34">
         <v>3.9429298313741237</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f>MIN(B34:E34)</f>
+        <v>4.2651681297786146</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1062,14 +1154,17 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A51D2E-D13A-4951-8B30-3B08598BCE2D}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1080,7 +1175,7 @@
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1100,7 +1195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1113,14 +1208,18 @@
       <c r="D2">
         <v>0.97012079778683158</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>0.97195800752843464</v>
       </c>
       <c r="F2">
         <v>0.97492683213665798</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2">
+        <f>MAX(B2:E2)</f>
+        <v>0.97195800752843464</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1133,14 +1232,18 @@
       <c r="D3">
         <v>4.8538350120883077E-3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>4.7391175866648714E-3</v>
       </c>
       <c r="F3">
         <v>4.2632550016730702E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3">
+        <f>MIN(B3:E3)</f>
+        <v>4.7391175866648714E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1153,14 +1256,18 @@
       <c r="D4">
         <v>8.2109977444404774E-3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>7.9355985127424911E-3</v>
       </c>
       <c r="F4">
         <v>7.5426835655097975E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4">
+        <f>MIN(B4:E4)</f>
+        <v>7.9355985127424911E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1200,14 +1307,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8">
         <v>4.9364698078374555E-3</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.40645453358533534</v>
       </c>
       <c r="D8">
@@ -1219,15 +1326,19 @@
       <c r="F8">
         <v>0.4608628248297309</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8">
+        <f>MAX(B8:E8)</f>
+        <v>0.40645453358533534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
         <v>9.0803849016622574E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2.6793562058168145E-3</v>
       </c>
       <c r="D9">
@@ -1239,15 +1350,19 @@
       <c r="F9">
         <v>2.4182093281213315E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9">
+        <f>MIN(B9:E9)</f>
+        <v>2.6793562058168145E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
         <v>1.0785598357846494E-2</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>5.4330554685981117E-3</v>
       </c>
       <c r="D10">
@@ -1259,8 +1374,12 @@
       <c r="F10">
         <v>5.2032964503120737E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10">
+        <f>MIN(B10:E10)</f>
+        <v>5.4330554685981117E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1300,14 +1419,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>1</v>
       </c>
       <c r="B14">
         <v>0.32531099130046659</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.53447635579984154</v>
       </c>
       <c r="D14">
@@ -1319,15 +1438,19 @@
       <c r="F14">
         <v>0.56672264008109152</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14">
+        <f>MAX(B14:E14)</f>
+        <v>0.53447635579984154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>2</v>
       </c>
       <c r="B15">
         <v>5.6836636947512197E-2</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>3.7126034698414537E-2</v>
       </c>
       <c r="D15">
@@ -1339,15 +1462,19 @@
       <c r="F15">
         <v>3.3234781482619685E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15">
+        <f>MIN(B15:E15)</f>
+        <v>3.7126034698414537E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>3</v>
       </c>
       <c r="B16">
         <v>0.101577833392745</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>8.945620466077954E-2</v>
       </c>
       <c r="D16">
@@ -1359,8 +1486,12 @@
       <c r="F16">
         <v>8.6943838449215174E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16">
+        <f>MIN(B16:E16)</f>
+        <v>8.945620466077954E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1511,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1531,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1413,14 +1544,18 @@
       <c r="D20">
         <v>0.97012079778683158</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>0.97195800752843464</v>
       </c>
       <c r="F20">
         <v>0.97492683213665798</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <f>MAX(B20:E20)</f>
+        <v>0.97195800752843464</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1433,14 +1568,18 @@
       <c r="D21">
         <v>4.8538350120883077E-3</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>4.7391175866648714E-3</v>
       </c>
       <c r="F21">
         <v>4.2632550016730702E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21">
+        <f>MIN(B21:E21)</f>
+        <v>4.7391175866648714E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1453,14 +1592,18 @@
       <c r="D22">
         <v>8.2109977444404774E-3</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>7.9355985127424911E-3</v>
       </c>
       <c r="F22">
         <v>7.5426835655097975E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <f>MIN(B22:E22)</f>
+        <v>7.9355985127424911E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1480,7 +1623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1500,14 +1643,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>1</v>
       </c>
       <c r="B26">
         <v>4.9364698078374555E-3</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.40645453358533534</v>
       </c>
       <c r="D26">
@@ -1519,15 +1662,19 @@
       <c r="F26">
         <v>0.4608628248297309</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26">
+        <f>MAX(B26:E26)</f>
+        <v>0.40645453358533534</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27">
         <v>9.0803849016622574E-3</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>2.6793562058168145E-3</v>
       </c>
       <c r="D27">
@@ -1539,15 +1686,19 @@
       <c r="F27">
         <v>2.4182093281213315E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <f>MIN(B27:E27)</f>
+        <v>2.6793562058168145E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28">
         <v>1.0785598357846494E-2</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>5.4330554685981117E-3</v>
       </c>
       <c r="D28">
@@ -1559,8 +1710,12 @@
       <c r="F28">
         <v>5.2032964503120737E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <f>MIN(B28:E28)</f>
+        <v>5.4330554685981117E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1580,7 +1735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1600,14 +1755,14 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>1</v>
       </c>
       <c r="B32">
         <v>0.32531099130046659</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>0.53447635579984154</v>
       </c>
       <c r="D32">
@@ -1619,15 +1774,19 @@
       <c r="F32">
         <v>0.56672264008109152</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <f>MAX(B32:E32)</f>
+        <v>0.53447635579984154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>2</v>
       </c>
       <c r="B33">
         <v>5.6836636947512197E-2</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>3.7126034698414537E-2</v>
       </c>
       <c r="D33">
@@ -1639,15 +1798,19 @@
       <c r="F33">
         <v>3.3234781482619685E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33">
+        <f>MIN(B33:E33)</f>
+        <v>3.7126034698414537E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>3</v>
       </c>
       <c r="B34">
         <v>0.101577833392745</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>8.945620466077954E-2</v>
       </c>
       <c r="D34">
@@ -1659,8 +1822,12 @@
       <c r="F34">
         <v>8.6943838449215174E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34">
+        <f>MIN(B34:E34)</f>
+        <v>8.945620466077954E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1689,7 +1856,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53D2EC87-9CA2-4760-B574-423017808B45}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>

--- a/Experiment_Resulsts/longitudinal_prediction_result.xlsx
+++ b/Experiment_Resulsts/longitudinal_prediction_result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\htet_predict_bank_failure\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/htetnaing/Development/htet_predict_bank_failure/Experiment_Resulsts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AB6118-CB46-41D6-A9B0-AF7B96DEDFF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFC51B3-C986-4F4A-89D8-8FBE719FDB42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{CA47FFE5-72A6-4068-B02C-789BD64119FD}"/>
+    <workbookView xWindow="32320" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{CA47FFE5-72A6-4068-B02C-789BD64119FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="24">
   <si>
     <t>Row</t>
   </si>
@@ -485,16 +485,16 @@
       <selection activeCell="F1" sqref="F1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -514,7 +514,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -537,7 +537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -566,7 +566,7 @@
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -595,7 +595,7 @@
         <v>1.21E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -624,10 +624,10 @@
         <v>1.67E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -672,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -701,7 +701,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -730,7 +730,7 @@
         <v>2.8400000000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -759,10 +759,10 @@
         <v>3.8899999999999997E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -783,7 +783,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -836,7 +836,7 @@
         <v>5.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -865,7 +865,7 @@
         <v>24.910799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -894,7 +894,7 @@
         <v>105.7208</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -938,7 +938,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -981,7 +981,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>1.4200000000000001E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>2.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1092,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1116,7 +1116,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>0.21229999999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1162,7 +1162,7 @@
         <v>1.9E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>2.4500000000000001E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1206,7 +1206,7 @@
       </c>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>0.29559999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F36" s="2" t="s">
         <v>2</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0.32069999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>0.9819</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F39" s="1" t="s">
         <v>21</v>
       </c>
@@ -1342,15 +1342,15 @@
       <selection activeCell="G1" sqref="G1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1459,7 +1459,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1492,10 +1492,10 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1573,7 +1573,7 @@
         <v>0.40649999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1639,10 +1639,10 @@
         <v>5.4000000000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>1</v>
       </c>
@@ -1687,7 +1687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>0.53449999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1753,7 +1753,7 @@
         <v>3.7100000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1786,7 +1786,7 @@
         <v>8.9499999999999996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1812,7 +1812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +1830,7 @@
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>0.97540000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>7.3000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1996,7 +1996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -2053,7 +2053,7 @@
         <v>0.25040000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G30" s="2" t="s">
         <v>2</v>
       </c>
@@ -2074,7 +2074,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>1.24E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0.63219999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G36" s="2" t="s">
         <v>2</v>
       </c>
@@ -2221,7 +2221,7 @@
         <v>3.7199999999999997E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>7.46E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G39" s="1" t="s">
         <v>21</v>
       </c>
@@ -2263,19 +2263,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559CD385-A18A-438C-B7ED-00D1E850E8E2}">
-  <dimension ref="D1:J40"/>
+  <dimension ref="D1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="G1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="17.44140625" customWidth="1"/>
-    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="4:10" x14ac:dyDescent="0.2">
       <c r="G1" t="s">
         <v>22</v>
       </c>
@@ -2283,7 +2283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="4:10" x14ac:dyDescent="0.2">
       <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
@@ -2297,7 +2297,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="4:10" x14ac:dyDescent="0.2">
       <c r="E3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2317,7 +2317,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0.97199999999999998</v>
       </c>
     </row>
-    <row r="5" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="6" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D6" s="2" t="s">
         <v>3</v>
       </c>
@@ -2386,10 +2386,10 @@
         <v>7.9000000000000008E-3</v>
       </c>
     </row>
-    <row r="7" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D8" s="2"/>
       <c r="F8" s="3" t="s">
         <v>4</v>
@@ -2404,7 +2404,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
         <v>5</v>
@@ -2425,7 +2425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D10" s="2" t="s">
         <v>20</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>0.1045</v>
       </c>
     </row>
-    <row r="11" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D11" s="2" t="s">
         <v>2</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>3.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D12" s="2" t="s">
         <v>3</v>
       </c>
@@ -2494,10 +2494,10 @@
         <v>2.0199999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -2512,7 +2512,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
         <v>5</v>
@@ -2533,7 +2533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D16" s="2" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2556,7 @@
         <v>0.30959999999999999</v>
       </c>
     </row>
-    <row r="17" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D17" s="2" t="s">
         <v>2</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>4.0800000000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D18" s="2" t="s">
         <v>3</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0.14849999999999999</v>
       </c>
     </row>
-    <row r="20" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
@@ -2634,345 +2634,355 @@
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
     </row>
-    <row r="22" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="4" t="s">
+    <row r="22" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" s="4" t="s">
+      <c r="I23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J23" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="E23" s="3" t="s">
+    <row r="24" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D24" s="2" t="s">
+    <row r="25" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="2">
         <v>0.50539999999999996</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F25" s="1">
         <v>0.54659999999999997</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G25" s="2">
         <v>0.53</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H25" s="1">
         <v>0.97540000000000004</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>0.8125</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>0.93510000000000004</v>
       </c>
     </row>
-    <row r="25" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2">
+    <row r="26" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
         <v>1.43E-2</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F26" s="1">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G26" s="2">
         <v>1.4200000000000001E-2</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H26" s="1">
         <v>4.7000000000000002E-3</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>5.4999999999999997E-3</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D26" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="2">
+    <row r="27" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
         <v>2.3599999999999999E-2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F27" s="1">
         <v>2.2100000000000002E-2</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G27" s="2">
         <v>2.2599999999999999E-2</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H27" s="1">
         <v>7.3000000000000001E-3</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>1.9599999999999999E-2</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D28" s="2"/>
-      <c r="F28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G28" s="4" t="s">
+    </row>
+    <row r="29" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="I29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J29" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
+    <row r="30" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D30" s="2" t="s">
+    <row r="31" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>0.16059999999999999</v>
       </c>
-      <c r="F30">
+      <c r="F31">
         <v>0.2072</v>
       </c>
-      <c r="G30" s="1">
+      <c r="G31" s="1">
         <v>0.21229999999999999</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H31" s="1">
         <v>0.25040000000000001</v>
       </c>
-      <c r="I30">
+      <c r="I31">
         <v>0.1197</v>
       </c>
-      <c r="J30">
+      <c r="J31">
         <v>0.1502</v>
       </c>
     </row>
-    <row r="31" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D31" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31">
+    <row r="32" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32">
         <v>1.9300000000000001E-2</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <v>1.9400000000000001E-2</v>
       </c>
-      <c r="G31" s="1">
+      <c r="G32" s="1">
         <v>1.9E-2</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H32" s="1">
         <v>3.5999999999999999E-3</v>
       </c>
-      <c r="I31">
+      <c r="I32">
         <v>6.3E-3</v>
       </c>
-      <c r="J31">
+      <c r="J32">
         <v>4.8999999999999998E-3</v>
       </c>
     </row>
-    <row r="32" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D32" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32">
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33">
         <v>2.4799999999999999E-2</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F33" s="1">
         <v>2.4899999999999999E-2</v>
       </c>
-      <c r="G32">
+      <c r="G33">
         <v>2.4500000000000001E-2</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H33" s="1">
         <v>1.24E-2</v>
       </c>
-      <c r="I32">
+      <c r="I33">
         <v>3.6499999999999998E-2</v>
       </c>
-      <c r="J32">
+      <c r="J33">
         <v>2.35E-2</v>
       </c>
     </row>
-    <row r="33" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="4:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
       <c r="D34" s="2"/>
-      <c r="F34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="4" t="s">
+    </row>
+    <row r="35" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J34" s="4" t="s">
+      <c r="I35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J35" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H36" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I36" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J36" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D36" s="2" t="s">
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E37" s="1">
         <v>0.31900000000000001</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F37" s="2">
         <v>0.28749999999999998</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G37" s="2">
         <v>0.29559999999999997</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H37" s="1">
         <v>0.63219999999999998</v>
       </c>
-      <c r="I36">
+      <c r="I37">
         <v>0.3569</v>
       </c>
-      <c r="J36">
+      <c r="J37">
         <v>0.48580000000000001</v>
       </c>
     </row>
-    <row r="37" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="1">
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
         <v>0.2495</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F38" s="2">
         <v>0.42549999999999999</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G38" s="2">
         <v>0.32069999999999999</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H38" s="1">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="I37">
+      <c r="I38">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="J37">
+      <c r="J38">
         <v>3.8100000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E38" s="1">
+    <row r="39" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1">
         <v>0.44919999999999999</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F39" s="2">
         <v>1.6054999999999999</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G39" s="2">
         <v>0.9819</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H39" s="1">
         <v>7.46E-2</v>
       </c>
-      <c r="I38">
+      <c r="I39">
         <v>0.1193</v>
       </c>
-      <c r="J38">
+      <c r="J39">
         <v>9.3799999999999994E-2</v>
       </c>
     </row>
-    <row r="40" spans="4:10" x14ac:dyDescent="0.3">
-      <c r="D40" s="1" t="s">
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E40">
-        <v>3</v>
-      </c>
-      <c r="F40" s="1">
-        <v>4</v>
-      </c>
-      <c r="G40">
-        <v>2</v>
-      </c>
-      <c r="H40" s="1">
+      <c r="E41">
+        <v>3</v>
+      </c>
+      <c r="F41" s="1">
+        <v>4</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+      <c r="H41" s="1">
         <v>9</v>
       </c>
-      <c r="I40">
+      <c r="I41">
         <v>0</v>
       </c>
-      <c r="J40">
+      <c r="J41">
         <v>0</v>
       </c>
     </row>
